--- a/biology/Botanique/Caralluma_edulis/Caralluma_edulis.xlsx
+++ b/biology/Botanique/Caralluma_edulis/Caralluma_edulis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caralluma edulis est une espèce de plantes dicotylédones de la famille des Apocynaceae, sous-famille des Asclepiadoideae, originaire des régions tropicales de l'Ancien Monde.
 </t>
@@ -513,12 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (22 mars 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (22 mars 2019) :
 Boucerosia edulis Edgew.
 Boucerosia stocksiana Boiss.
 Brachystelma subaphyllum (Schltr.) K.Schum.
-Caralluma edulis[2]
+Caralluma edulis
 Caralluma longidens N.E.Br.
 Caralluma vittata N.E.Br.
 Caudanthera edulis (Edgew.) Meve &amp; Liede
